--- a/Akari/Excel/Scene.xlsx
+++ b/Akari/Excel/Scene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\2020.11.27-SAN\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\MyGithub\AkariARPG\Akari\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80BAA4-01B5-4273-9BC0-37F119530709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E008B341-5923-4319-B8F9-EA571BA0593D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18735" yWindow="5130" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="4050" windowWidth="18600" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,32 +50,40 @@
     <t>备注</t>
   </si>
   <si>
-    <t>资源Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程名称</t>
-  </si>
-  <si>
-    <t>AssetId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动场景</t>
+    <t>资源名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroundMusicId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>菜单场景</t>
-  </si>
-  <si>
-    <t>ProcedureMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -403,7 +411,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -442,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -459,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -470,10 +478,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>101</v>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -481,17 +492,18 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>